--- a/data/degerli_madenler.xlsx
+++ b/data/degerli_madenler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\Desktop\Proje\degerli_madenler_raporu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\Desktop\Proje\degerli_madenler_raporu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715537C-CF56-4F24-9F44-678F0452AD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC03A3-6457-4939-98F7-7DF75ADBD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65353912-50FF-4F43-9409-72F6C448B608}"/>
   </bookViews>
@@ -633,34 +633,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -692,6 +674,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,6 +699,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8F8DC2-F6BA-4D5B-A4C7-84181818A6B5}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,736 +1211,736 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="6">
         <v>1980</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="7">
         <v>562.5</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <f>(B4-B3)/B3</f>
         <v>3.8755555555555474E-2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>37.75</v>
       </c>
-      <c r="F3" s="14">
-        <f>(E4-E3)/E3</f>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F48" si="0">(E4-E3)/E3</f>
         <v>-0.58543046357615902</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="7">
         <v>722.6</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="8">
         <f>(H4-H3)/H3</f>
         <v>-0.15292001107113201</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>1981</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="7">
         <v>584.29999999999995</v>
       </c>
-      <c r="C4" s="14">
-        <f t="shared" ref="C4:C48" si="0">(B5-B4)/B4</f>
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C48" si="1">(B5-B4)/B4</f>
         <v>-0.3244908437446517</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="7">
         <v>15.65</v>
       </c>
-      <c r="F4" s="14">
-        <f>(E5-E4)/E4</f>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
         <v>-0.48753993610223645</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="7">
         <v>612.1</v>
       </c>
-      <c r="I4" s="14">
-        <f t="shared" ref="I4:I48" si="1">(H5-H4)/H4</f>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4:I48" si="2">(H5-H4)/H4</f>
         <v>-0.36693350759679794</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>1982</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="7">
         <v>394.7</v>
       </c>
-      <c r="C5" s="14">
-        <f t="shared" si="0"/>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
         <v>0.14137319483151764</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="7">
         <v>8.02</v>
       </c>
-      <c r="F5" s="14">
-        <f>(E6-E5)/E5</f>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
         <v>0.36533665835411472</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="7">
         <v>387.5</v>
       </c>
-      <c r="I5" s="14">
-        <f t="shared" si="1"/>
+      <c r="I5" s="8">
+        <f t="shared" si="2"/>
         <v>4.0774193548387128E-2</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="6">
         <v>1983</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="7">
         <v>450.5</v>
       </c>
-      <c r="C6" s="14">
-        <f t="shared" si="0"/>
+      <c r="C6" s="8">
+        <f t="shared" si="1"/>
         <v>-0.15427302996670367</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="7">
         <v>10.95</v>
       </c>
-      <c r="F6" s="14">
-        <f>(E7-E6)/E6</f>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
         <v>-0.21643835616438351</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="7">
         <v>403.3</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" si="1"/>
+      <c r="I6" s="8">
+        <f t="shared" si="2"/>
         <v>-3.8432928341185224E-2</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="6">
         <v>1984</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="7">
         <v>381</v>
       </c>
-      <c r="C7" s="14">
-        <f t="shared" si="0"/>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
         <v>-0.20393700787401572</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>8.58</v>
       </c>
-      <c r="F7" s="14">
-        <f>(E8-E7)/E7</f>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
         <v>-0.28321678321678317</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="7">
         <v>387.8</v>
       </c>
-      <c r="I7" s="14">
-        <f t="shared" si="1"/>
+      <c r="I7" s="8">
+        <f t="shared" si="2"/>
         <v>-0.28004125838060862</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="6">
         <v>1985</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="7">
         <v>303.3</v>
       </c>
-      <c r="C8" s="14">
-        <f t="shared" si="0"/>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
         <v>7.8140454995054356E-2</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="7">
         <v>6.15</v>
       </c>
-      <c r="F8" s="14">
-        <f>(E9-E8)/E8</f>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
         <v>-6.829268292682926E-2</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="7">
         <v>279.2</v>
       </c>
-      <c r="I8" s="14">
-        <f t="shared" si="1"/>
+      <c r="I8" s="8">
+        <f t="shared" si="2"/>
         <v>0.24283667621776509</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="6">
         <v>1986</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="7">
         <v>327</v>
       </c>
-      <c r="C9" s="14">
-        <f t="shared" si="0"/>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
         <v>0.22782874617737003</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="7">
         <v>5.73</v>
       </c>
-      <c r="F9" s="14">
-        <f>(E10-E9)/E9</f>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
         <v>-5.06108202443281E-2</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="I9" s="14">
-        <f t="shared" si="1"/>
+      <c r="I9" s="8">
+        <f t="shared" si="2"/>
         <v>0.37579250720461088</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="6">
         <v>1987</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="7">
         <v>401.5</v>
       </c>
-      <c r="C10" s="14">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
         <v>0.19352428393524282</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="7">
         <v>5.44</v>
       </c>
-      <c r="F10" s="14">
-        <f>(E11-E10)/E10</f>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
         <v>0.1985294117647057</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="7">
         <v>477.4</v>
       </c>
-      <c r="I10" s="14">
-        <f t="shared" si="1"/>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
         <v>5.2576455802262306E-2</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="6">
         <v>1988</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="7">
         <v>479.2</v>
       </c>
-      <c r="C11" s="14">
-        <f t="shared" si="0"/>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
         <v>-0.14273789649415689</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="7">
         <v>6.52</v>
       </c>
-      <c r="F11" s="14">
-        <f>(E12-E11)/E11</f>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
         <v>-6.9018404907975353E-2</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="7">
         <v>502.5</v>
       </c>
-      <c r="I11" s="14">
-        <f t="shared" si="1"/>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
         <v>4.9154228855721481E-2</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="6">
         <v>1989</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="7">
         <v>410.8</v>
       </c>
-      <c r="C12" s="14">
-        <f t="shared" si="0"/>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
         <v>-2.726387536514116E-2</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="7">
         <v>6.07</v>
       </c>
-      <c r="F12" s="14">
-        <f>(E13-E12)/E12</f>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
         <v>-0.14168039538714997</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="7">
         <v>527.20000000000005</v>
       </c>
-      <c r="I12" s="14">
-        <f t="shared" si="1"/>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
         <v>-8.5356600910470509E-2</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="6">
         <v>1990</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="7">
         <v>399.6</v>
       </c>
-      <c r="C13" s="14">
-        <f t="shared" si="0"/>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
         <v>-1.6516516516516571E-2</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="7">
         <v>5.21</v>
       </c>
-      <c r="F13" s="14">
-        <f>(E14-E13)/E13</f>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
         <v>-0.20729366602687141</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="7">
         <v>482.2</v>
       </c>
-      <c r="I13" s="14">
-        <f t="shared" si="1"/>
+      <c r="I13" s="8">
+        <f t="shared" si="2"/>
         <v>-0.14247200331812523</v>
       </c>
       <c r="J13" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="6">
         <v>1991</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="7">
         <v>393</v>
       </c>
-      <c r="C14" s="14">
-        <f t="shared" si="0"/>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
         <v>-0.10407124681933837</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="7">
         <v>4.13</v>
       </c>
-      <c r="F14" s="14">
-        <f>(E15-E14)/E14</f>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
         <v>-6.5375302663438259E-2</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="7">
         <v>413.5</v>
       </c>
-      <c r="I14" s="14">
-        <f t="shared" si="1"/>
+      <c r="I14" s="8">
+        <f t="shared" si="2"/>
         <v>-6.0217654171704903E-2</v>
       </c>
       <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="6">
         <v>1992</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="7">
         <v>352.1</v>
       </c>
-      <c r="C15" s="14">
-        <f t="shared" si="0"/>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
         <v>-5.4813973303038936E-2</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="7">
         <v>3.86</v>
       </c>
-      <c r="F15" s="14">
-        <f>(E16-E15)/E15</f>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
         <v>-5.699481865284968E-2</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="7">
         <v>388.6</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="1"/>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
         <v>-9.2382913021101479E-2</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="6">
         <v>1993</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="7">
         <v>332.8</v>
       </c>
-      <c r="C16" s="14">
-        <f t="shared" si="0"/>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
         <v>0.18299278846153838</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="7">
         <v>3.64</v>
       </c>
-      <c r="F16" s="14">
-        <f>(E17-E16)/E16</f>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
         <v>0.40109890109890095</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="7">
         <v>352.7</v>
       </c>
-      <c r="I16" s="14">
-        <f t="shared" si="1"/>
+      <c r="I16" s="8">
+        <f t="shared" si="2"/>
         <v>0.13410830734335133</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="6">
         <v>1994</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="7">
         <v>393.7</v>
       </c>
-      <c r="C17" s="14">
-        <f t="shared" si="0"/>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
         <v>-3.5814071628143172E-2</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F17" s="14">
-        <f>(E18-E17)/E17</f>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
         <v>-7.2549019607842991E-2</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="7">
         <v>400</v>
       </c>
-      <c r="I17" s="14">
-        <f t="shared" si="1"/>
+      <c r="I17" s="8">
+        <f t="shared" si="2"/>
         <v>-0.63549999999999995</v>
       </c>
       <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="6">
         <v>1995</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="7">
         <v>379.6</v>
       </c>
-      <c r="C18" s="14">
-        <f t="shared" si="0"/>
+      <c r="C18" s="8">
+        <f t="shared" si="1"/>
         <v>2.107481559536354E-2</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="7">
         <v>4.7300000000000004</v>
       </c>
-      <c r="F18" s="14">
-        <f>(E19-E18)/E18</f>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
         <v>0.14164904862579278</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="7">
         <v>145.80000000000001</v>
       </c>
-      <c r="I18" s="14">
-        <f t="shared" si="1"/>
+      <c r="I18" s="8">
+        <f t="shared" si="2"/>
         <v>1.8004115226337447</v>
       </c>
       <c r="J18" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="6">
         <v>1996</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="7">
         <v>387.6</v>
       </c>
-      <c r="C19" s="14">
-        <f t="shared" si="0"/>
+      <c r="C19" s="8">
+        <f t="shared" si="1"/>
         <v>-5.6501547987616182E-2</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="7">
         <v>5.4</v>
       </c>
-      <c r="F19" s="14">
-        <f>(E20-E19)/E19</f>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
         <v>-0.12037037037037043</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="7">
         <v>408.3</v>
       </c>
-      <c r="I19" s="14">
-        <f t="shared" si="1"/>
+      <c r="I19" s="8">
+        <f t="shared" si="2"/>
         <v>-9.110947832476117E-2</v>
       </c>
       <c r="J19" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="6">
         <v>1997</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="7">
         <v>365.7</v>
       </c>
-      <c r="C20" s="14">
-        <f t="shared" si="0"/>
+      <c r="C20" s="8">
+        <f t="shared" si="1"/>
         <v>-0.22996992070002725</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="7">
         <v>4.75</v>
       </c>
-      <c r="F20" s="14">
-        <f>(E21-E20)/E20</f>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
         <v>0.24631578947368418</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="7">
         <v>371.1</v>
       </c>
-      <c r="I20" s="14">
-        <f t="shared" si="1"/>
+      <c r="I20" s="8">
+        <f t="shared" si="2"/>
         <v>-1.3742926434923261E-2</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="7">
         <v>199</v>
       </c>
-      <c r="L20" s="14">
-        <f t="shared" ref="L20:L48" si="2">(K21-K20)/K20</f>
+      <c r="L20" s="8">
+        <f t="shared" ref="L20:L48" si="3">(K21-K20)/K20</f>
         <v>1.7336683417085368E-2</v>
       </c>
       <c r="M20" t="s">
@@ -1939,44 +1948,44 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="6">
         <v>1998</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="7">
         <v>281.60000000000002</v>
       </c>
-      <c r="C21" s="14">
-        <f t="shared" si="0"/>
+      <c r="C21" s="8">
+        <f t="shared" si="1"/>
         <v>2.0951704545454464E-2</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="7">
         <v>5.92</v>
       </c>
-      <c r="F21" s="14">
-        <f>(E22-E21)/E21</f>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
         <v>-0.16891891891891891</v>
       </c>
       <c r="G21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="7">
         <v>366</v>
       </c>
-      <c r="I21" s="14">
-        <f t="shared" si="1"/>
+      <c r="I21" s="8">
+        <f t="shared" si="2"/>
         <v>-9.562841530054645E-3</v>
       </c>
       <c r="J21" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="7">
         <v>202.45</v>
       </c>
-      <c r="L21" s="14">
-        <f t="shared" si="2"/>
+      <c r="L21" s="8">
+        <f t="shared" si="3"/>
         <v>0.66460854531983216</v>
       </c>
       <c r="M21" t="s">
@@ -1984,44 +1993,44 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="6">
         <v>1999</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="7">
         <v>287.5</v>
       </c>
-      <c r="C22" s="14">
-        <f t="shared" si="0"/>
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
         <v>1.7391304347826088E-3</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="7">
         <v>4.92</v>
       </c>
-      <c r="F22" s="14">
-        <f>(E23-E22)/E22</f>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
         <v>9.7560975609756184E-2</v>
       </c>
       <c r="G22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="7">
         <v>362.5</v>
       </c>
-      <c r="I22" s="14">
-        <f t="shared" si="1"/>
+      <c r="I22" s="8">
+        <f t="shared" si="2"/>
         <v>0.22896551724137931</v>
       </c>
       <c r="J22" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="7">
         <v>337</v>
       </c>
-      <c r="L22" s="14">
-        <f t="shared" si="2"/>
+      <c r="L22" s="8">
+        <f t="shared" si="3"/>
         <v>0.31750741839762614</v>
       </c>
       <c r="M22" t="s">
@@ -2029,44 +2038,44 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="6">
         <v>2000</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="7">
         <v>288</v>
       </c>
-      <c r="C23" s="14">
-        <f t="shared" si="0"/>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
         <v>-5.3993055555555593E-2</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="7">
         <v>5.4</v>
       </c>
-      <c r="F23" s="14">
-        <f>(E24-E23)/E23</f>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
         <v>-0.14814814814814828</v>
       </c>
       <c r="G23" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="7">
         <v>445.5</v>
       </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
+      <c r="I23" s="8">
+        <f t="shared" si="2"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="J23" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="7">
         <v>444</v>
       </c>
-      <c r="L23" s="14">
-        <f t="shared" si="2"/>
+      <c r="L23" s="8">
+        <f t="shared" si="3"/>
         <v>1.1384009009009011</v>
       </c>
       <c r="M23" t="s">
@@ -2074,44 +2083,44 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="6">
         <v>2001</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="7">
         <v>272.45</v>
       </c>
-      <c r="C24" s="14">
-        <f t="shared" si="0"/>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
         <v>2.2939988988805286E-2</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F24" s="14">
-        <f>(E25-E24)/E24</f>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
         <v>2.1739130434784079E-3</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="7">
         <v>607.5</v>
       </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
+      <c r="I24" s="8">
+        <f t="shared" si="2"/>
         <v>-0.21152263374485597</v>
       </c>
       <c r="J24" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="7">
         <v>949.45</v>
       </c>
-      <c r="L24" s="14">
-        <f t="shared" si="2"/>
+      <c r="L24" s="8">
+        <f t="shared" si="3"/>
         <v>-0.54499973668966251</v>
       </c>
       <c r="M24" t="s">
@@ -2119,44 +2128,44 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="6">
         <v>2002</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="7">
         <v>278.7</v>
       </c>
-      <c r="C25" s="14">
-        <f t="shared" si="0"/>
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
         <v>0.24793684965913176</v>
       </c>
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F25" s="14">
-        <f>(E26-E25)/E25</f>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
         <v>3.4707158351409813E-2</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="7">
         <v>479</v>
       </c>
-      <c r="I25" s="14">
-        <f t="shared" si="1"/>
+      <c r="I25" s="8">
+        <f t="shared" si="2"/>
         <v>0.24843423799582465</v>
       </c>
       <c r="J25" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="7">
         <v>432</v>
       </c>
-      <c r="L25" s="14">
-        <f t="shared" si="2"/>
+      <c r="L25" s="8">
+        <f t="shared" si="3"/>
         <v>-0.46759259259259262</v>
       </c>
       <c r="M25" t="s">
@@ -2164,44 +2173,44 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="6">
         <v>2003</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="7">
         <v>347.8</v>
       </c>
-      <c r="C26" s="14">
-        <f t="shared" si="0"/>
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
         <v>0.1949396204715354</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="F26" s="14">
-        <f>(E27-E26)/E26</f>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
         <v>0.24318658280922437</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="7">
         <v>598</v>
       </c>
-      <c r="I26" s="14">
-        <f t="shared" si="1"/>
+      <c r="I26" s="8">
+        <f t="shared" si="2"/>
         <v>0.35451505016722407</v>
       </c>
       <c r="J26" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="7">
         <v>230</v>
       </c>
-      <c r="L26" s="14">
-        <f t="shared" si="2"/>
+      <c r="L26" s="8">
+        <f t="shared" si="3"/>
         <v>-0.18260869565217391</v>
       </c>
       <c r="M26" t="s">
@@ -2209,44 +2218,44 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="6">
         <v>2004</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="7">
         <v>415.6</v>
       </c>
-      <c r="C27" s="14">
-        <f t="shared" si="0"/>
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
         <v>5.3897978825793974E-2</v>
       </c>
       <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="7">
         <v>5.93</v>
       </c>
-      <c r="F27" s="14">
-        <f>(E28-E27)/E27</f>
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
         <v>0.14502529510961221</v>
       </c>
       <c r="G27" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="7">
         <v>810</v>
       </c>
-      <c r="I27" s="14">
-        <f t="shared" si="1"/>
+      <c r="I27" s="8">
+        <f t="shared" si="2"/>
         <v>5.7407407407407407E-2</v>
       </c>
       <c r="J27" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="7">
         <v>188</v>
       </c>
-      <c r="L27" s="14">
-        <f t="shared" si="2"/>
+      <c r="L27" s="8">
+        <f t="shared" si="3"/>
         <v>-2.9255319148936171E-2</v>
       </c>
       <c r="M27" t="s">
@@ -2254,44 +2263,44 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="6">
         <v>2005</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="7">
         <v>438</v>
       </c>
-      <c r="C28" s="14">
-        <f t="shared" si="0"/>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
         <v>0.1713470319634702</v>
       </c>
       <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="7">
         <v>6.79</v>
       </c>
-      <c r="F28" s="14">
-        <f>(E29-E28)/E28</f>
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
         <v>0.29749631811487487</v>
       </c>
       <c r="G28" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="7">
         <v>856.5</v>
       </c>
-      <c r="I28" s="14">
-        <f t="shared" si="1"/>
+      <c r="I28" s="8">
+        <f t="shared" si="2"/>
         <v>0.1290134267367192</v>
       </c>
       <c r="J28" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="7">
         <v>182.5</v>
       </c>
-      <c r="L28" s="14">
-        <f t="shared" si="2"/>
+      <c r="L28" s="8">
+        <f t="shared" si="3"/>
         <v>0.37808219178082192</v>
       </c>
       <c r="M28" t="s">
@@ -2299,44 +2308,44 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="6">
         <v>2006</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="7">
         <v>513.04999999999995</v>
       </c>
-      <c r="C29" s="14">
-        <f t="shared" si="0"/>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
         <v>0.24013254068804221</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="7">
         <v>8.81</v>
       </c>
-      <c r="F29" s="14">
-        <f>(E30-E29)/E29</f>
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
         <v>0.46083995459704863</v>
       </c>
       <c r="G29" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="7">
         <v>967</v>
       </c>
-      <c r="I29" s="14">
-        <f t="shared" si="1"/>
+      <c r="I29" s="8">
+        <f t="shared" si="2"/>
         <v>0.17425025853154086</v>
       </c>
       <c r="J29" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="7">
         <v>251.5</v>
       </c>
-      <c r="L29" s="14">
-        <f t="shared" si="2"/>
+      <c r="L29" s="8">
+        <f t="shared" si="3"/>
         <v>0.32007952286282304</v>
       </c>
       <c r="M29" t="s">
@@ -2344,44 +2353,44 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="6">
         <v>2007</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="7">
         <v>636.25</v>
       </c>
-      <c r="C30" s="14">
-        <f t="shared" si="0"/>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
         <v>0.30970530451866396</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="7">
         <v>12.87</v>
       </c>
-      <c r="F30" s="14">
-        <f>(E31-E30)/E30</f>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
         <v>0.14763014763014767</v>
       </c>
       <c r="G30" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="7">
         <v>1135.5</v>
       </c>
-      <c r="I30" s="14">
-        <f t="shared" si="1"/>
+      <c r="I30" s="8">
+        <f t="shared" si="2"/>
         <v>0.34125935711140465</v>
       </c>
       <c r="J30" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="7">
         <v>332</v>
       </c>
-      <c r="L30" s="14">
-        <f t="shared" si="2"/>
+      <c r="L30" s="8">
+        <f t="shared" si="3"/>
         <v>0.10391566265060241</v>
       </c>
       <c r="M30" t="s">
@@ -2389,44 +2398,44 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="6">
         <v>2008</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="7">
         <v>833.3</v>
       </c>
-      <c r="C31" s="14">
-        <f t="shared" si="0"/>
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
         <v>5.6606264250570117E-2</v>
       </c>
       <c r="D31" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="7">
         <v>14.77</v>
       </c>
-      <c r="F31" s="14">
-        <f>(E32-E31)/E31</f>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
         <v>-0.2301963439404198</v>
       </c>
       <c r="G31" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="7">
         <v>1523</v>
       </c>
-      <c r="I31" s="14">
-        <f t="shared" si="1"/>
+      <c r="I31" s="8">
+        <f t="shared" si="2"/>
         <v>-0.38903479973736049</v>
       </c>
       <c r="J31" t="s">
         <v>77</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="7">
         <v>366.5</v>
       </c>
-      <c r="L31" s="14">
-        <f t="shared" si="2"/>
+      <c r="L31" s="8">
+        <f t="shared" si="3"/>
         <v>-0.49386084583901774</v>
       </c>
       <c r="M31" t="s">
@@ -2434,44 +2443,44 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="6">
         <v>2009</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="7">
         <v>880.47</v>
       </c>
-      <c r="C32" s="14">
-        <f t="shared" si="0"/>
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
         <v>0.24518722954785499</v>
       </c>
       <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="7">
         <v>11.37</v>
       </c>
-      <c r="F32" s="14">
-        <f>(E33-E32)/E32</f>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
         <v>0.48109058927000886</v>
       </c>
       <c r="G32" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="7">
         <v>930.5</v>
       </c>
-      <c r="I32" s="14">
-        <f t="shared" si="1"/>
+      <c r="I32" s="8">
+        <f t="shared" si="2"/>
         <v>0.57549704459967754</v>
       </c>
       <c r="J32" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="7">
         <v>185.5</v>
       </c>
-      <c r="L32" s="14">
-        <f t="shared" si="2"/>
+      <c r="L32" s="8">
+        <f t="shared" si="3"/>
         <v>1.1832884097035041</v>
       </c>
       <c r="M32" t="s">
@@ -2479,44 +2488,44 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+      <c r="A33" s="6">
         <v>2010</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="7">
         <v>1096.3499999999999</v>
       </c>
-      <c r="C33" s="14">
-        <f t="shared" si="0"/>
+      <c r="C33" s="8">
+        <f t="shared" si="1"/>
         <v>0.29470515802435371</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="7">
         <v>16.84</v>
       </c>
-      <c r="F33" s="14">
-        <f>(E34-E33)/E33</f>
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
         <v>0.83254156769596199</v>
       </c>
       <c r="G33" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="7">
         <v>1466</v>
       </c>
-      <c r="I33" s="14">
-        <f t="shared" si="1"/>
+      <c r="I33" s="8">
+        <f t="shared" si="2"/>
         <v>0.20583219645293316</v>
       </c>
       <c r="J33" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="7">
         <v>405</v>
       </c>
-      <c r="L33" s="14">
-        <f t="shared" si="2"/>
+      <c r="L33" s="8">
+        <f t="shared" si="3"/>
         <v>0.96851851851851856</v>
       </c>
       <c r="M33" t="s">
@@ -2524,44 +2533,44 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="6">
         <v>2011</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="7">
         <v>1419.45</v>
       </c>
-      <c r="C34" s="14">
-        <f t="shared" si="0"/>
+      <c r="C34" s="8">
+        <f t="shared" si="1"/>
         <v>0.105125224558808</v>
       </c>
       <c r="D34" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="7">
         <v>30.86</v>
       </c>
-      <c r="F34" s="14">
-        <f>(E35-E34)/E34</f>
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
         <v>-9.8185353208036327E-2</v>
       </c>
       <c r="G34" t="s">
         <v>86</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="7">
         <v>1767.75</v>
       </c>
-      <c r="I34" s="14">
-        <f t="shared" si="1"/>
+      <c r="I34" s="8">
+        <f t="shared" si="2"/>
         <v>-0.21414227124876253</v>
       </c>
       <c r="J34" t="s">
         <v>87</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="7">
         <v>797.25</v>
       </c>
-      <c r="L34" s="14">
-        <f t="shared" si="2"/>
+      <c r="L34" s="8">
+        <f t="shared" si="3"/>
         <v>-0.18408278457196611</v>
       </c>
       <c r="M34" t="s">
@@ -2569,44 +2578,44 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="6">
         <v>2012</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="7">
         <v>1568.67</v>
       </c>
-      <c r="C35" s="14">
-        <f t="shared" si="0"/>
+      <c r="C35" s="8">
+        <f t="shared" si="1"/>
         <v>6.800028049239154E-2</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="7">
         <v>27.83</v>
       </c>
-      <c r="F35" s="14">
-        <f>(E36-E35)/E35</f>
+      <c r="F35" s="8">
+        <f t="shared" si="0"/>
         <v>8.9471793029105365E-2</v>
       </c>
       <c r="G35" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="7">
         <v>1389.2</v>
       </c>
-      <c r="I35" s="14">
-        <f t="shared" si="1"/>
+      <c r="I35" s="8">
+        <f t="shared" si="2"/>
         <v>0.10711200691045203</v>
       </c>
       <c r="J35" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="7">
         <v>650.49</v>
       </c>
-      <c r="L35" s="14">
-        <f t="shared" si="2"/>
+      <c r="L35" s="8">
+        <f t="shared" si="3"/>
         <v>7.3805900167565969E-2</v>
       </c>
       <c r="M35" t="s">
@@ -2614,44 +2623,44 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="A36" s="6">
         <v>2013</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="10">
         <v>1675.34</v>
       </c>
-      <c r="C36" s="14">
-        <f t="shared" si="0"/>
+      <c r="C36" s="8">
+        <f t="shared" si="1"/>
         <v>-0.28050425585254329</v>
       </c>
       <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="10">
         <v>30.32</v>
       </c>
-      <c r="F36" s="14">
-        <f>(E37-E36)/E36</f>
+      <c r="F36" s="8">
+        <f t="shared" si="0"/>
         <v>-0.35850923482849606</v>
       </c>
       <c r="G36" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="10">
         <v>1538</v>
       </c>
-      <c r="I36" s="14">
-        <f t="shared" si="1"/>
+      <c r="I36" s="8">
+        <f t="shared" si="2"/>
         <v>-0.11167100130039012</v>
       </c>
       <c r="J36" t="s">
         <v>92</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="10">
         <v>698.5</v>
       </c>
-      <c r="L36" s="14">
-        <f t="shared" si="2"/>
+      <c r="L36" s="8">
+        <f t="shared" si="3"/>
         <v>2.1832498210450968E-2</v>
       </c>
       <c r="M36" t="s">
@@ -2659,44 +2668,44 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="6">
         <v>2014</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="7">
         <v>1205.4000000000001</v>
       </c>
-      <c r="C37" s="14">
-        <f t="shared" si="0"/>
+      <c r="C37" s="8">
+        <f t="shared" si="1"/>
         <v>-1.927990708478514E-2</v>
       </c>
       <c r="D37" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="7">
         <v>19.45</v>
       </c>
-      <c r="F37" s="14">
-        <f>(E38-E37)/E37</f>
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
         <v>-0.19434447300771204</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="7">
         <v>1366.25</v>
       </c>
-      <c r="I37" s="14">
-        <f t="shared" si="1"/>
+      <c r="I37" s="8">
+        <f t="shared" si="2"/>
         <v>-0.11846294602012802</v>
       </c>
       <c r="J37" t="s">
         <v>94</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="7">
         <v>713.75</v>
       </c>
-      <c r="L37" s="14">
-        <f t="shared" si="2"/>
+      <c r="L37" s="8">
+        <f t="shared" si="3"/>
         <v>0.11369527145359017</v>
       </c>
       <c r="M37" t="s">
@@ -2704,44 +2713,44 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="6">
         <v>2015</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="7">
         <v>1182.1600000000001</v>
       </c>
-      <c r="C38" s="14">
-        <f t="shared" si="0"/>
+      <c r="C38" s="8">
+        <f t="shared" si="1"/>
         <v>-0.10232117479867364</v>
       </c>
       <c r="D38" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="7">
         <v>15.67</v>
       </c>
-      <c r="F38" s="14">
-        <f>(E39-E38)/E38</f>
+      <c r="F38" s="8">
+        <f t="shared" si="0"/>
         <v>-0.11678366305041481</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="7">
         <v>1204.4000000000001</v>
       </c>
-      <c r="I38" s="14">
-        <f t="shared" si="1"/>
+      <c r="I38" s="8">
+        <f t="shared" si="2"/>
         <v>-0.26394885420126207</v>
       </c>
       <c r="J38" t="s">
         <v>98</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="7">
         <v>794.9</v>
       </c>
-      <c r="L38" s="14">
-        <f t="shared" si="2"/>
+      <c r="L38" s="8">
+        <f t="shared" si="3"/>
         <v>-0.29462825512643093</v>
       </c>
       <c r="M38" t="s">
@@ -2749,44 +2758,44 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="A39" s="6">
         <v>2016</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="7">
         <v>1061.2</v>
       </c>
-      <c r="C39" s="14">
-        <f t="shared" si="0"/>
+      <c r="C39" s="8">
+        <f t="shared" si="1"/>
         <v>8.5082924990576667E-2</v>
       </c>
       <c r="D39" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="7">
         <v>13.84</v>
       </c>
-      <c r="F39" s="14">
-        <f>(E40-E39)/E39</f>
+      <c r="F39" s="8">
+        <f t="shared" si="0"/>
         <v>0.1473988439306359</v>
       </c>
       <c r="G39" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="7">
         <v>886.5</v>
       </c>
-      <c r="I39" s="14">
-        <f t="shared" si="1"/>
+      <c r="I39" s="8">
+        <f t="shared" si="2"/>
         <v>1.6920473773265651E-2</v>
       </c>
       <c r="J39" t="s">
         <v>102</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="7">
         <v>560.70000000000005</v>
       </c>
-      <c r="L39" s="14">
-        <f t="shared" si="2"/>
+      <c r="L39" s="8">
+        <f t="shared" si="3"/>
         <v>0.21276975209559471</v>
       </c>
       <c r="M39" t="s">
@@ -2794,44 +2803,44 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="6">
         <v>2017</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="7">
         <v>1151.49</v>
       </c>
-      <c r="C40" s="14">
-        <f t="shared" si="0"/>
+      <c r="C40" s="8">
+        <f t="shared" si="1"/>
         <v>0.13119523400116365</v>
       </c>
       <c r="D40" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="7">
         <v>15.88</v>
       </c>
-      <c r="F40" s="14">
-        <f>(E41-E40)/E40</f>
+      <c r="F40" s="8">
+        <f t="shared" si="0"/>
         <v>6.4861460957178804E-2</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="7">
         <v>901.5</v>
       </c>
-      <c r="I40" s="14">
-        <f t="shared" si="1"/>
+      <c r="I40" s="8">
+        <f t="shared" si="2"/>
         <v>3.2723239046034386E-2</v>
       </c>
       <c r="J40" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="7">
         <v>680</v>
       </c>
-      <c r="L40" s="14">
-        <f t="shared" si="2"/>
+      <c r="L40" s="8">
+        <f t="shared" si="3"/>
         <v>0.56617647058823528</v>
       </c>
       <c r="M40" t="s">
@@ -2839,44 +2848,44 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="6">
         <v>2018</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="7">
         <v>1302.56</v>
       </c>
-      <c r="C41" s="14">
-        <f t="shared" si="0"/>
+      <c r="C41" s="8">
+        <f t="shared" si="1"/>
         <v>-1.5592371944478524E-2</v>
       </c>
       <c r="D41" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="7">
         <v>16.91</v>
       </c>
-      <c r="F41" s="14">
-        <f>(E42-E41)/E41</f>
+      <c r="F41" s="8">
+        <f t="shared" si="0"/>
         <v>-8.5748078060319297E-2</v>
       </c>
       <c r="G41" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="7">
         <v>931</v>
       </c>
-      <c r="I41" s="14">
-        <f t="shared" si="1"/>
+      <c r="I41" s="8">
+        <f t="shared" si="2"/>
         <v>-0.14930182599355532</v>
       </c>
       <c r="J41" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="7">
         <v>1065</v>
       </c>
-      <c r="L41" s="14">
-        <f t="shared" si="2"/>
+      <c r="L41" s="8">
+        <f t="shared" si="3"/>
         <v>0.18826291079812207</v>
       </c>
       <c r="M41" t="s">
@@ -2884,44 +2893,44 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="6">
         <v>2019</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="7">
         <v>1282.25</v>
       </c>
-      <c r="C42" s="14">
-        <f t="shared" si="0"/>
+      <c r="C42" s="8">
+        <f t="shared" si="1"/>
         <v>0.18362253850653151</v>
       </c>
       <c r="D42" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="7">
         <v>15.46</v>
       </c>
-      <c r="F42" s="14">
-        <f>(E43-E42)/E42</f>
+      <c r="F42" s="8">
+        <f t="shared" si="0"/>
         <v>0.15459249676584738</v>
       </c>
       <c r="G42" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="7">
         <v>792</v>
       </c>
-      <c r="I42" s="14">
-        <f t="shared" si="1"/>
+      <c r="I42" s="8">
+        <f t="shared" si="2"/>
         <v>0.22125000000000003</v>
       </c>
       <c r="J42" t="s">
         <v>113</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="7">
         <v>1265.5</v>
       </c>
-      <c r="L42" s="14">
-        <f t="shared" si="2"/>
+      <c r="L42" s="8">
+        <f t="shared" si="3"/>
         <v>0.5377084156459897</v>
       </c>
       <c r="M42" t="s">
@@ -2929,44 +2938,44 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="6">
         <v>2020</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="7">
         <v>1517.7</v>
       </c>
-      <c r="C43" s="14">
-        <f t="shared" si="0"/>
+      <c r="C43" s="8">
+        <f t="shared" si="1"/>
         <v>0.25062265269816159</v>
       </c>
       <c r="D43" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="7">
         <v>17.850000000000001</v>
       </c>
-      <c r="F43" s="14">
-        <f>(E44-E43)/E43</f>
+      <c r="F43" s="8">
+        <f t="shared" si="0"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="G43" t="s">
         <v>116</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="7">
         <v>967.23</v>
       </c>
-      <c r="I43" s="14">
-        <f t="shared" si="1"/>
+      <c r="I43" s="8">
+        <f t="shared" si="2"/>
         <v>0.10831963441994147</v>
       </c>
       <c r="J43" t="s">
         <v>117</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="7">
         <v>1945.97</v>
       </c>
-      <c r="L43" s="14">
-        <f t="shared" si="2"/>
+      <c r="L43" s="8">
+        <f t="shared" si="3"/>
         <v>0.2662065705021146</v>
       </c>
       <c r="M43" t="s">
@@ -2974,44 +2983,44 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="6">
         <v>2021</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="7">
         <v>1898.07</v>
       </c>
-      <c r="C44" s="14">
-        <f t="shared" si="0"/>
+      <c r="C44" s="8">
+        <f t="shared" si="1"/>
         <v>-3.6916446706391194E-2</v>
       </c>
       <c r="D44" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="7">
         <v>26.35</v>
       </c>
-      <c r="F44" s="14">
-        <f>(E45-E44)/E44</f>
+      <c r="F44" s="8">
+        <f t="shared" si="0"/>
         <v>-0.11650853889943075</v>
       </c>
       <c r="G44" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="7">
         <v>1072</v>
       </c>
-      <c r="I44" s="14">
-        <f t="shared" si="1"/>
+      <c r="I44" s="8">
+        <f t="shared" si="2"/>
         <v>-9.9813432835820892E-2</v>
       </c>
       <c r="J44" t="s">
         <v>121</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="7">
         <v>2464</v>
       </c>
-      <c r="L44" s="14">
-        <f t="shared" si="2"/>
+      <c r="L44" s="8">
+        <f t="shared" si="3"/>
         <v>-0.2278814935064935</v>
       </c>
       <c r="M44" t="s">
@@ -3019,44 +3028,44 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="A45" s="6">
         <v>2022</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="7">
         <v>1828</v>
       </c>
-      <c r="C45" s="14">
-        <f t="shared" si="0"/>
+      <c r="C45" s="8">
+        <f t="shared" si="1"/>
         <v>-2.4452954048140192E-3</v>
       </c>
       <c r="D45" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="7">
         <v>23.28</v>
       </c>
-      <c r="F45" s="14">
-        <f>(E46-E45)/E45</f>
+      <c r="F45" s="8">
+        <f t="shared" si="0"/>
         <v>2.8780068728522255E-2</v>
       </c>
       <c r="G45" t="s">
         <v>123</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="7">
         <v>965</v>
       </c>
-      <c r="I45" s="14">
-        <f t="shared" si="1"/>
+      <c r="I45" s="8">
+        <f t="shared" si="2"/>
         <v>0.10673575129533679</v>
       </c>
       <c r="J45" t="s">
         <v>124</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="7">
         <v>1902.5</v>
       </c>
-      <c r="L45" s="14">
-        <f t="shared" si="2"/>
+      <c r="L45" s="8">
+        <f t="shared" si="3"/>
         <v>-5.3613666228646516E-2</v>
       </c>
       <c r="M45" t="s">
@@ -3064,44 +3073,44 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="A46" s="6">
         <v>2023</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="7">
         <v>1823.53</v>
       </c>
-      <c r="C46" s="14">
-        <f t="shared" si="0"/>
+      <c r="C46" s="8">
+        <f t="shared" si="1"/>
         <v>0.13114673188815093</v>
       </c>
       <c r="D46" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="7">
         <v>23.95</v>
       </c>
-      <c r="F46" s="14">
-        <f>(E47-E46)/E46</f>
+      <c r="F46" s="8">
+        <f t="shared" si="0"/>
         <v>-7.5156576200417421E-3</v>
       </c>
       <c r="G46" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="7">
         <v>1068</v>
       </c>
-      <c r="I46" s="14">
-        <f t="shared" si="1"/>
+      <c r="I46" s="8">
+        <f t="shared" si="2"/>
         <v>-7.3033707865168537E-2</v>
       </c>
       <c r="J46" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="7">
         <v>1800.5</v>
       </c>
-      <c r="L46" s="14">
-        <f t="shared" si="2"/>
+      <c r="L46" s="8">
+        <f t="shared" si="3"/>
         <v>-0.38822549291863373</v>
       </c>
       <c r="M46" t="s">
@@ -3109,44 +3118,44 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="6">
         <v>2024</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="7">
         <v>2062.6799999999998</v>
       </c>
-      <c r="C47" s="14">
-        <f t="shared" si="0"/>
+      <c r="C47" s="8">
+        <f t="shared" si="1"/>
         <v>0.27204413675412586</v>
       </c>
       <c r="D47" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="7">
         <v>23.77</v>
       </c>
-      <c r="F47" s="14">
-        <f>(E48-E47)/E47</f>
+      <c r="F47" s="8">
+        <f t="shared" si="0"/>
         <v>0.21539755994951623</v>
       </c>
       <c r="G47" t="s">
         <v>129</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="7">
         <v>990</v>
       </c>
-      <c r="I47" s="14">
-        <f t="shared" si="1"/>
+      <c r="I47" s="8">
+        <f t="shared" si="2"/>
         <v>-8.0646464646464674E-2</v>
       </c>
       <c r="J47" t="s">
         <v>130</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="7">
         <v>1101.5</v>
       </c>
-      <c r="L47" s="14">
-        <f t="shared" si="2"/>
+      <c r="L47" s="8">
+        <f t="shared" si="3"/>
         <v>-0.17338175215615073</v>
       </c>
       <c r="M47" t="s">
@@ -3154,85 +3163,85 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="A48" s="6">
         <v>2025</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="7">
         <v>2623.82</v>
       </c>
-      <c r="C48" s="14">
-        <f t="shared" si="0"/>
+      <c r="C48" s="8">
+        <f t="shared" si="1"/>
         <v>0.64579506216127636</v>
       </c>
       <c r="D48" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="7">
         <v>28.89</v>
       </c>
-      <c r="F48" s="14">
-        <f>(E49-E48)/E48</f>
+      <c r="F48" s="8">
+        <f t="shared" si="0"/>
         <v>1.505711318795431</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="7">
         <v>910.16</v>
       </c>
-      <c r="I48" s="14">
-        <f t="shared" si="1"/>
+      <c r="I48" s="8">
+        <f t="shared" si="2"/>
         <v>1.2999033137030855</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="7">
         <v>910.52</v>
       </c>
-      <c r="L48" s="14">
-        <f t="shared" si="2"/>
+      <c r="L48" s="8">
+        <f t="shared" si="3"/>
         <v>0.8001252031806001</v>
       </c>
-      <c r="M48" s="18" t="s">
+      <c r="M48" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+      <c r="A49" s="6">
         <v>2026</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="7">
         <v>4318.2700000000004</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="8"/>
+      <c r="D49" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="7">
         <v>72.39</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="8"/>
+      <c r="G49" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="7">
         <v>2093.2800000000002</v>
       </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="18" t="s">
+      <c r="I49" s="8"/>
+      <c r="J49" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="7">
         <v>1639.05</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="18" t="s">
+      <c r="L49" s="8"/>
+      <c r="M49" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B50" s="20">
@@ -3241,9 +3250,12 @@
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="E50" s="23">
+        <f>(E49-E3)/E3</f>
+        <v>0.91761589403973509</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="20">
         <f>(H49-H3)/H3</f>
         <v>1.8968724052034325</v>
@@ -3265,9 +3277,9 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="F50:G50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="K50:M50"/>
+    <mergeCell ref="E50:G50"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C49">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
